--- a/backend/output/output.xlsx
+++ b/backend/output/output.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MAC 2312</t>
+          <t>MAC 2312: Calculus II</t>
         </is>
       </c>
     </row>
